--- a/ExamCell3/Studentdata.xlsx
+++ b/ExamCell3/Studentdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Examcell3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8EADEAB-8AE7-4F99-95CC-3C2F02EE942B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3EAA0E-B135-4C67-A121-083A02C2E09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2472" yWindow="2472" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21166,7 +21166,7 @@
   <dimension ref="A1:I1805"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
